--- a/システム設計.xlsx
+++ b/システム設計.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="17235" windowHeight="7155"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="17235" windowHeight="7155" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="全体構造" sheetId="1" r:id="rId1"/>
@@ -4281,14 +4281,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>38101</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4297,8 +4297,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1409701" y="3648074"/>
-          <a:ext cx="2752724" cy="1152525"/>
+          <a:off x="1409701" y="3924299"/>
+          <a:ext cx="5667374" cy="1533526"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4345,7 +4345,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>編集中マップ番号を表示。</a:t>
+            <a:t>編集中マップ番号と使用チップセット番号を表示。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -4369,7 +4369,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>中段にはカーソル位置の座標を表示。</a:t>
+            <a:t>中段にはカーソル位置の座標と現在のマップチップ番号を表示。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -4421,7 +4421,63 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>を押したあと、読み込むマップ番号を入力する。</a:t>
+            <a:t>を押したあと、読み込むマップ番号を入力して</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Enter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>で読み込む。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Save</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を押したあと、「セーブしました」のメッセージを出し、右述の仕様でファイルを書き出す。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>New</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を押したあと、マップ名と使用する地形・背景・前景チップセット番号と</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>X</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>サイズと</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Y</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>サイズを入力して</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Enter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>で新しいマップの作成をスタートする。</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4430,16 +4486,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>42863</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>90488</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4450,9 +4506,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2786063" y="2828925"/>
-          <a:ext cx="733425" cy="819149"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3519488" y="2828925"/>
+          <a:ext cx="723900" cy="1095374"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4476,6 +4532,832 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線コネクタ 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="0"/>
+          <a:ext cx="0" cy="7334250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="角丸四角形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229599" y="257175"/>
+          <a:ext cx="4171952" cy="2143125"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>作成されるファイル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(map000.dat </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>など</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>行目</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マップ名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>文字まで</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>行目</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>使用する地形チップセット番号</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>行目</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>使用する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>背景</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>チップセット番号</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>行目</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>使用する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>前景</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>チップセット番号</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>行目</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>…X</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>サイズ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>行目</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>…Y</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>サイズ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>以下、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>n</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>と表記</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>行目</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>~7+n-1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>行目</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>カンマ区切りで地形マップチップ番号</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>7+n</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>行目</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>~7+2n-1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>行目</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>カンマ区切りで</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>背景</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>マップチップ番号</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>7+2n</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>行目</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>~7+3n-1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>行目</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>…</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>カンマ区切りで</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>前景</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>マップチップ番号</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>685798</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="角丸四角形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229598" y="2543175"/>
+          <a:ext cx="4257677" cy="3057525"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>↓</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>↓↓↓↓↓↓↓↓</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>作成されるファイル</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>例</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>↓↓↓↓↓↓↓↓</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>テストマップ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>0,1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>1,1,1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>2,2,2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1,1,1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1,1,1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1,1,1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0,0,0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0,0,0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0,0,0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4770,7 +5652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -4786,9 +5668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>

--- a/システム設計.xlsx
+++ b/システム設計.xlsx
@@ -5650,6 +5650,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5660,12 +5663,16 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -5674,7 +5681,8 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="78" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5688,5 +5696,6 @@
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>